--- a/server/files/chitiet_donhang.xlsx
+++ b/server/files/chitiet_donhang.xlsx
@@ -16,25 +16,25 @@
     <t>Mã đơn hàng</t>
   </si>
   <si>
-    <t>"65813338f60726598a626ee2"</t>
+    <t>"6581894d0e023dbe78265609"</t>
   </si>
   <si>
     <t>Tên khách hàng</t>
   </si>
   <si>
-    <t>Nguyễn Phan Hải Đông</t>
+    <t>Trương Thị Thuỷ</t>
   </si>
   <si>
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Hải Hậu, Nam Định</t>
+    <t>212 Hàng Bái Hà Nội</t>
   </si>
   <si>
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>0224565575</t>
+    <t>0123456789</t>
   </si>
   <si>
     <t>Ngày đặt hàng</t>
@@ -67,13 +67,13 @@
     <t>Giá</t>
   </si>
   <si>
-    <t>Bàn ăn gỗ Pio 6 chỗ 1m8 mẫu 2</t>
-  </si>
-  <si>
-    <t>Bàn ăn Cartesio Ceramic P312</t>
-  </si>
-  <si>
-    <t>Bàn ăn Shadow 6 chỗ</t>
+    <t>Đèn Avant-Garde</t>
+  </si>
+  <si>
+    <t>Đèn bàn Savona</t>
+  </si>
+  <si>
+    <t>Đèn bàn Champ</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>45279.255466620365</v>
+        <v>45279.51052841435</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>174600000</v>
+        <v>16729999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,10 +549,10 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>12770000</v>
+        <v>459999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>113900000</v>
+        <v>9670000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,10 +577,10 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>17580000</v>
+        <v>6600000</v>
       </c>
     </row>
   </sheetData>
